--- a/yfinance_with_current_prices.xlsx
+++ b/yfinance_with_current_prices.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/23cc51a9eeb24e5b/Documents/GitHub/AutomatedExcelReports/quick-work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_2DE5E2F84983882FA12D4CEBBD6F0E53797E9DAA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB67D4D5-4066-408A-BE93-C6B8D8FA6022}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_2DE5E2F84983882FA12D4CEBBD6F0E53797E9DAA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9245B74-5523-4D90-BE1C-E40C9B957FAC}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$3315</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -10360,10 +10363,13 @@
   <dimension ref="A1:C3315"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -36238,6 +36244,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C3315" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>